--- a/Project/Win32Project1/stage/イベント早見表.xlsx
+++ b/Project/Win32Project1/stage/イベント早見表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>イベント早見表</t>
     <rPh sb="4" eb="7">
@@ -117,6 +117,25 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お宝</t>
+    <rPh sb="1" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -669,7 +688,7 @@
   <dimension ref="B3:D261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,15 +736,23 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
